--- a/Data/Processed/Angiosperms/missing_powo_ipni/Portulacaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Portulacaceae.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vellosia 1: 22. 1888 </t>
+          <t>Vellosia 1: 22. 1888</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Soc. Brot. sér. 2, 15: 33. 1941 </t>
+          <t>Bol. Soc. Brot. sér. 2, 15: 33. 1941</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comun. Bot. Mus. Hist. Nat. Montevideo no. 53: 2, fig. 1970 </t>
+          <t>Comun. Bot. Mus. Hist. Nat. Montevideo no. 53: 2, fig. 1970</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 49: 210. 1940 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 49: 210. 1940</t>
         </is>
       </c>
       <c r="J71" t="b">
